--- a/Aguas y Aguas Residuales/14.3.xlsx
+++ b/Aguas y Aguas Residuales/14.3.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Aguas y Aguas Residuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A37EAB-26F9-4E60-8DF1-00EFEB6FD94D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADB959-4F15-4700-AEEE-E47B77E3FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Superficie_cuencas" sheetId="7" r:id="rId1"/>
-    <sheet name="Hoja4" sheetId="5" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
+    <sheet name="Superficie_cuencas" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Superficie_cuencas!$A$1:$J$101</definedName>
+    <definedName name="DatosExternos_2" localSheetId="1" hidden="1">Superficie_cuencas!$A$1:$J$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="165">
   <si>
     <t>Región</t>
   </si>
@@ -591,13 +595,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,18 +610,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -642,6 +635,18 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -653,6 +658,1436 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paula Rojas" refreshedDate="44378.99673958333" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="100" xr:uid="{A733B345-1DA9-4E18-BFE2-896F87FB1CE6}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Superficie_cuencas"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Región" numFmtId="0">
+      <sharedItems count="27">
+        <s v="XV - I"/>
+        <s v="XV"/>
+        <s v="I"/>
+        <s v="II"/>
+        <s v="I - II"/>
+        <s v="III"/>
+        <s v="II - III"/>
+        <s v="III - IV"/>
+        <s v="IV"/>
+        <s v="V"/>
+        <s v="V - XIII - VI"/>
+        <s v="V - XIII"/>
+        <s v="V - XIII - VI - VII"/>
+        <s v="VI - VII"/>
+        <s v="VII"/>
+        <s v="VII - VIII"/>
+        <s v="VIII"/>
+        <s v="VIII - IX"/>
+        <s v="IX"/>
+        <s v="XIV"/>
+        <s v="IX - XIV"/>
+        <s v="X - XIV"/>
+        <s v="X"/>
+        <s v="X - XI"/>
+        <s v="XI"/>
+        <s v="XI - XII"/>
+        <s v="XII"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nombre" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Id_región" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Id_Producto" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="150102" maxValue="150193"/>
+    </cacheField>
+    <cacheField name="Producto" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Id_Categoría" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Categoría" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Cuencas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Km2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="67.180000000000007" maxValue="42222.93"/>
+    </cacheField>
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Definición" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <x v="0"/>
+    <s v="Altiplanicas"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="11369.06"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Quebrada de la Concordia"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="784.83"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Río Lluta"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="3437.15"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Río San Jose"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="3193.95"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Costeras R. San Jose-Q.Camarones"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="2675.59"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Q. Río Camarones"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="4681.8900000000003"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Costeras R.Camarones-Pampa del Tamarugal"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="3805.76"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Pampa del Tamarugal"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="17353.8"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Costeras Tilviche-Loa"/>
+    <m/>
+    <n v="150102"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="5847.45"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Fronterizas Salar Michincha-R.Loa"/>
+    <m/>
+    <n v="150103"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="2675.03"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Río Loa"/>
+    <m/>
+    <n v="150104"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="33082.769999999997"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Costeras R.Loa-Q.Caracoles"/>
+    <m/>
+    <n v="150105"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="8377.7900000000009"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Fronterizas Salares Atacama-Socompa"/>
+    <m/>
+    <n v="150106"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="4055.54"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Endorreica entre Fronterizas y Salar Atacama"/>
+    <m/>
+    <n v="150107"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="5307.77"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Salar de Atacama"/>
+    <m/>
+    <n v="150108"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="15576.5"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Endorreicas Salar Atacama-Vertiente Pacifico"/>
+    <m/>
+    <n v="150109"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="14473.65"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Quebrada Caracoles"/>
+    <m/>
+    <n v="150110"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="18296.2"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Quebrada la Negra"/>
+    <m/>
+    <n v="150111"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="11347.2"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Costeras entre Q. la Negra y Q. Pan de Azucar"/>
+    <m/>
+    <n v="150112"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="16897.509999999998"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Endorreicas entre Frontera y Vertiente del Pacifico"/>
+    <m/>
+    <n v="150113"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="15619.02"/>
+    <s v="Endorreica"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Costeras Q.Pan de Azucar-R.Salado"/>
+    <m/>
+    <n v="150114"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="6626.42"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Río Salado"/>
+    <m/>
+    <n v="150115"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="7528.75"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Costeras e Islas R.Salado-R.Copiapo"/>
+    <m/>
+    <n v="150116"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="5848.99"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="R.  Copiapo"/>
+    <m/>
+    <n v="150117"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="18704.07"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Costeras entre R.Copiapo y Q.Totoral"/>
+    <m/>
+    <n v="150118"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="2045.84"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Q.Totoral y Costeras hasta Q.Carrizal"/>
+    <m/>
+    <n v="150119"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="5944.31"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Quebrada Carrizal y Costeras hasta R. Huasco"/>
+    <m/>
+    <n v="150120"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="2414.71"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Río Huasco"/>
+    <m/>
+    <n v="150121"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="9813.74"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Costeras e Islas entre R.Huasco y Cuarta Region"/>
+    <m/>
+    <n v="150122"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="3959.15"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Costeras e Islas entre Tercera Region y Q. Los Choros"/>
+    <m/>
+    <n v="150123"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="229.88"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Río los Choros"/>
+    <m/>
+    <n v="150124"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="3837.95"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Costeras entrre R. Los Choros y R. Elqui"/>
+    <m/>
+    <n v="150125"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="440.82"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Río Elqui"/>
+    <m/>
+    <n v="150126"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="9826"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Costeras entre Elqui y Limari"/>
+    <m/>
+    <n v="150127"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="2299.56"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Río Limari"/>
+    <m/>
+    <n v="150128"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="11696.45"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Costeras entre R.Limari y R.Choapa"/>
+    <m/>
+    <n v="150129"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1666.89"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Río Choapa"/>
+    <m/>
+    <n v="150130"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="7653.74"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Costeras entre R.Choapa y R.Quilimari"/>
+    <m/>
+    <n v="150131"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1293.4000000000001"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Río QuiLimari"/>
+    <m/>
+    <n v="150132"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="783.47"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Costeras Quilimari-Petorca"/>
+    <m/>
+    <n v="150133"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="332.65"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Río Petorca"/>
+    <m/>
+    <n v="150134"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1988.27"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Río Ligua"/>
+    <m/>
+    <n v="150135"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1980.18"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Costeras Ligua-Aconcagua"/>
+    <m/>
+    <n v="150136"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="850.52"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Río Aconcagua"/>
+    <m/>
+    <n v="150137"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="7334.27"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Costeras entre Aconcagua y Maipo"/>
+    <m/>
+    <n v="150138"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="2307.0100000000002"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Islas del Pacifico"/>
+    <m/>
+    <n v="150139"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="232.69"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Río Maipo"/>
+    <m/>
+    <n v="150140"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="15274.14"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Costeras entre  Maipo y Rapel"/>
+    <m/>
+    <n v="150141"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1072.03"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Río Rapel"/>
+    <m/>
+    <n v="150142"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="13766.76"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Costeras Rapel-E.Nilahue"/>
+    <m/>
+    <n v="150143"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="3397.3"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Costeras entre limite Region y R.  Mataquito"/>
+    <m/>
+    <n v="150144"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="613.73"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Río Mataquito"/>
+    <m/>
+    <n v="150145"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="6332.17"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Costeras Mataquito-Maule"/>
+    <m/>
+    <n v="150146"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1087.75"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Río Maule"/>
+    <m/>
+    <n v="150147"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="21053.78"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Costeras Maule y Limite Region"/>
+    <m/>
+    <n v="150148"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1995.43"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Costeras entre limite Region y R. Itata"/>
+    <m/>
+    <n v="150149"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="616.46"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Río Itata"/>
+    <m/>
+    <n v="150150"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="11327.19"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Costeras e Islas entre Río Itata y Río Bio-Bio"/>
+    <m/>
+    <n v="150151"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1502.97"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Río Bio-Bio"/>
+    <m/>
+    <n v="150152"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="24370.61"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Costeras e Islas entre Ríos Bio-Bio y Carampangue"/>
+    <m/>
+    <n v="150153"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="394.62"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Río Carampangue"/>
+    <m/>
+    <n v="150154"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1262.17"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Costeras Carampangue-Lebu"/>
+    <m/>
+    <n v="150155"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="624.15"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Río Lebu"/>
+    <m/>
+    <n v="150156"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="857.96"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Costeras Lebu-Paicavi"/>
+    <m/>
+    <n v="150157"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1695.84"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Costeras e Islas entre R.Paicavi y Limite Region"/>
+    <m/>
+    <n v="150158"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="1391.06"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Costeras Limite Region y R.  Imperial"/>
+    <m/>
+    <n v="150159"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="67.180000000000007"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Río Imperial"/>
+    <m/>
+    <n v="150160"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="12668.84"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Río Budi"/>
+    <m/>
+    <n v="150161"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="497.29"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Costeras Entre Río Budi y Río Tolten"/>
+    <m/>
+    <n v="150162"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="163.01"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Río Tolten"/>
+    <m/>
+    <n v="150163"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="8448.81"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Río Queule"/>
+    <m/>
+    <n v="150164"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="699.64"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Costeras entre limite Region y R.Valdivia"/>
+    <m/>
+    <n v="150165"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="743.51"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Río Valdivia"/>
+    <m/>
+    <n v="150166"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="10244.98"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Costeras entre R.Valdivia y R.Bueno"/>
+    <m/>
+    <n v="150167"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="762.66"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Río Bueno"/>
+    <m/>
+    <n v="150168"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="15366.76"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Cuencas e Islas entre R.Bueno y R. Puelo"/>
+    <m/>
+    <n v="150169"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="13507.84"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Río Puelo"/>
+    <m/>
+    <n v="150170"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="3094.45"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Costeras entre R.Puelo y R.Yelcho"/>
+    <m/>
+    <n v="150171"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="6248.95"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Río Yelcho"/>
+    <m/>
+    <n v="150172"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="4084.66"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Costeras entre R.Yelcho y limite Regional"/>
+    <m/>
+    <n v="150173"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="2709.26"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Islas Chiloe y Circundantes"/>
+    <m/>
+    <n v="150174"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="9964.17"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Río Palena y Costeras Limite Decima Region"/>
+    <m/>
+    <n v="150175"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="7732.64"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Costeras e Islas entre R.Palena y R.Aisen"/>
+    <m/>
+    <n v="150176"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="17200.330000000002"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Archipielagos de Las Guaitecas y de los Chonos"/>
+    <m/>
+    <n v="150177"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="24278.27"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Río Aisen"/>
+    <m/>
+    <n v="150178"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="11456.7"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Costeras e Islas entre R Aisen y R Baker y Canal Gral. Martinez"/>
+    <m/>
+    <n v="150179"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="35156.65"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Río Baker"/>
+    <m/>
+    <n v="150180"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="20946.919999999998"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Costeras e Islas entre R. Baker y R. Pascua"/>
+    <m/>
+    <n v="150181"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="4531.8599999999997"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Río Pascua"/>
+    <m/>
+    <n v="150182"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="7590.45"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Costeras entre R. Pascua Limite Region. Archipielago Guayeco"/>
+    <m/>
+    <n v="150183"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="16556.63"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Costeras entre Limite Region y Seno Andrew"/>
+    <m/>
+    <n v="150184"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="13951.63"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Islas entre limite Region y Canal Ancho y Estrecho de la Concepcion"/>
+    <m/>
+    <n v="150185"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="19851.5"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Costeras entre Seno Andrew y R. Hollemberg e islas al oriente"/>
+    <m/>
+    <n v="150186"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="17830.759999999998"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Islas entre Canales Concepcion, Sarmiento y E. de Magallanes"/>
+    <m/>
+    <n v="150187"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="24886.720000000001"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Costeras e Islas entre R Hollemberg, Golfo Alte. Laguna Blanca"/>
+    <m/>
+    <n v="150188"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="20667.560000000001"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Costeras entre Lag.  Blanca(inc), Seno Otway, canal Jeronimo y Magallanes"/>
+    <m/>
+    <n v="150189"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="17764.580000000002"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Vertiente del Atlantico"/>
+    <m/>
+    <n v="150190"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="9335"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Islas al Sur Estrecho de Magallanes"/>
+    <m/>
+    <n v="150191"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="27933.74"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Tierra del Fuego"/>
+    <m/>
+    <n v="150192"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="42222.93"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Islas al sur del Canal Beagle y TerritoRío Antartico"/>
+    <m/>
+    <n v="150193"/>
+    <s v="Aguas Superficiales"/>
+    <m/>
+    <x v="0"/>
+    <n v="35219.360000000001"/>
+    <s v="Exorreica"/>
+    <n v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{781AC90E-7A1C-40EC-8565-52E4B63BB318}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="27">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,15 +2129,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F099829E-E33F-463C-AA2D-9EA75C138637}" name="Superficie_cuencas" displayName="Superficie_cuencas" ref="A1:J101" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J101" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Región" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{43A00DD0-55AB-4AF7-A8A1-7E6284B11DE6}" uniqueName="2" name="Nombre" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Región" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{43A00DD0-55AB-4AF7-A8A1-7E6284B11DE6}" uniqueName="2" name="Nombre" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{D080F369-41D4-49D7-9638-DEC141920E26}" uniqueName="3" name="Id_región" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{06E5A634-EBF3-405C-AF9C-48A480BE10ED}" uniqueName="5" name="Id_Producto" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{46E73ADA-5EC9-4AEC-9E0F-398DB74F5E78}" uniqueName="6" name="Producto" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{46E73ADA-5EC9-4AEC-9E0F-398DB74F5E78}" uniqueName="6" name="Producto" queryTableFieldId="6" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{280AC2D3-C9CD-46BB-A78E-A7A160C84E59}" uniqueName="7" name="Id_Categoría" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{BB491DC2-A47C-4410-8CEB-01D3B6B51800}" uniqueName="8" name="Categoría" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Km2" queryTableFieldId="9" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{FAADDBFC-B9B0-4814-9462-6CEE58AFFAC3}" uniqueName="10" name="Tipo" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{BB491DC2-A47C-4410-8CEB-01D3B6B51800}" uniqueName="8" name="Categoría" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Km2" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{FAADDBFC-B9B0-4814-9462-6CEE58AFFAC3}" uniqueName="10" name="Tipo" queryTableFieldId="10" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{00674568-A639-4E29-9870-7D558011B447}" uniqueName="13" name="Definición" queryTableFieldId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -724,8 +2159,8 @@
     <tableColumn id="9" xr3:uid="{FC780F4B-C7DB-41E4-A693-53DD6FA99C6B}" name="Tags"/>
     <tableColumn id="10" xr3:uid="{DBB530BB-992B-4190-848A-D7DE9C8CD202}" name="ISO país"/>
     <tableColumn id="11" xr3:uid="{15A07EEF-6C1F-4CF5-9B02-0FF1E380ED4A}" name="Nivel administrativo"/>
-    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{21C1EE09-C873-4F57-9432-F9DF6B2F64A0}" name="Fecha" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{21C1EE09-C873-4F57-9432-F9DF6B2F64A0}" name="Fecha" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{7A8C3236-0C8F-4AD3-BA7C-589BA810C594}" name="Unidad"/>
     <tableColumn id="15" xr3:uid="{24AFDEA5-B87E-4622-A270-B32EFC13575C}" name="Responsable"/>
   </tableColumns>
@@ -1029,11 +2464,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4986BD-395E-4BDC-9037-61F1CF04B02B}">
+  <dimension ref="A3:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0990A9-6C8A-4CD6-9135-FE13E8A12DC1}">
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +2845,9 @@
       <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5">
+        <v>27</v>
+      </c>
       <c r="D2">
         <v>150102</v>
       </c>
@@ -1128,7 +2886,9 @@
       <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>26</v>
+      </c>
       <c r="D3">
         <v>150102</v>
       </c>
@@ -1167,7 +2927,9 @@
       <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>26</v>
+      </c>
       <c r="D4">
         <v>150102</v>
       </c>
@@ -1194,7 +2956,9 @@
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>26</v>
+      </c>
       <c r="D5">
         <v>150102</v>
       </c>
@@ -1221,7 +2985,9 @@
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>26</v>
+      </c>
       <c r="D6">
         <v>150102</v>
       </c>
@@ -1248,7 +3014,9 @@
       <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>27</v>
+      </c>
       <c r="D7">
         <v>150102</v>
       </c>
@@ -1275,7 +3043,9 @@
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>150102</v>
       </c>
@@ -1302,7 +3072,9 @@
       <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>150102</v>
       </c>
@@ -1329,7 +3101,9 @@
       <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
       <c r="D10">
         <v>150102</v>
       </c>
@@ -1356,7 +3130,9 @@
       <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
       <c r="D11">
         <v>150103</v>
       </c>
@@ -1383,7 +3159,9 @@
       <c r="B12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
       <c r="D12">
         <v>150104</v>
       </c>
@@ -1410,7 +3188,9 @@
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
       <c r="D13">
         <v>150105</v>
       </c>
@@ -1437,7 +3217,9 @@
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
       <c r="D14">
         <v>150106</v>
       </c>
@@ -1464,7 +3246,9 @@
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
       <c r="D15">
         <v>150107</v>
       </c>
@@ -1491,7 +3275,9 @@
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
       <c r="D16">
         <v>150108</v>
       </c>
@@ -1518,7 +3304,9 @@
       <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
       <c r="D17">
         <v>150109</v>
       </c>
@@ -1545,7 +3333,9 @@
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
       <c r="D18">
         <v>150110</v>
       </c>
@@ -1572,7 +3362,9 @@
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
       <c r="D19">
         <v>150111</v>
       </c>
@@ -1599,7 +3391,9 @@
       <c r="B20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
       <c r="D20">
         <v>150112</v>
       </c>
@@ -1626,7 +3420,9 @@
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21">
         <v>150113</v>
       </c>
@@ -1653,7 +3449,9 @@
       <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
       <c r="D22">
         <v>150114</v>
       </c>
@@ -1680,7 +3478,9 @@
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
       <c r="D23">
         <v>150115</v>
       </c>
@@ -1707,7 +3507,9 @@
       <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
       <c r="D24">
         <v>150116</v>
       </c>
@@ -1734,7 +3536,9 @@
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
       <c r="D25">
         <v>150117</v>
       </c>
@@ -1761,7 +3565,9 @@
       <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
       <c r="D26">
         <v>150118</v>
       </c>
@@ -1788,7 +3594,9 @@
       <c r="B27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
       <c r="D27">
         <v>150119</v>
       </c>
@@ -1815,7 +3623,9 @@
       <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
       <c r="D28">
         <v>150120</v>
       </c>
@@ -1842,7 +3652,9 @@
       <c r="B29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>6</v>
+      </c>
       <c r="D29">
         <v>150121</v>
       </c>
@@ -1869,7 +3681,9 @@
       <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
       <c r="D30">
         <v>150122</v>
       </c>
@@ -1896,7 +3710,9 @@
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>7</v>
+      </c>
       <c r="D31">
         <v>150123</v>
       </c>
@@ -1923,7 +3739,9 @@
       <c r="B32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>6</v>
+      </c>
       <c r="D32">
         <v>150124</v>
       </c>
@@ -1950,7 +3768,9 @@
       <c r="B33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5">
+        <v>7</v>
+      </c>
       <c r="D33">
         <v>150125</v>
       </c>
@@ -1977,7 +3797,9 @@
       <c r="B34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5">
+        <v>7</v>
+      </c>
       <c r="D34">
         <v>150126</v>
       </c>
@@ -2004,7 +3826,9 @@
       <c r="B35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5">
+        <v>7</v>
+      </c>
       <c r="D35">
         <v>150127</v>
       </c>
@@ -2031,7 +3855,9 @@
       <c r="B36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <v>7</v>
+      </c>
       <c r="D36">
         <v>150128</v>
       </c>
@@ -2058,7 +3884,9 @@
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5">
+        <v>7</v>
+      </c>
       <c r="D37">
         <v>150129</v>
       </c>
@@ -2085,7 +3913,9 @@
       <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5">
+        <v>7</v>
+      </c>
       <c r="D38">
         <v>150130</v>
       </c>
@@ -2112,7 +3942,9 @@
       <c r="B39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5">
+        <v>7</v>
+      </c>
       <c r="D39">
         <v>150131</v>
       </c>
@@ -2139,7 +3971,9 @@
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>7</v>
+      </c>
       <c r="D40">
         <v>150132</v>
       </c>
@@ -2166,7 +4000,9 @@
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5">
+        <v>10</v>
+      </c>
       <c r="D41">
         <v>150133</v>
       </c>
@@ -2193,7 +4029,9 @@
       <c r="B42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5">
+        <v>10</v>
+      </c>
       <c r="D42">
         <v>150134</v>
       </c>
@@ -2220,7 +4058,9 @@
       <c r="B43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5">
+        <v>10</v>
+      </c>
       <c r="D43">
         <v>150135</v>
       </c>
@@ -2247,7 +4087,9 @@
       <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5">
+        <v>10</v>
+      </c>
       <c r="D44">
         <v>150136</v>
       </c>
@@ -2274,7 +4116,9 @@
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5">
+        <v>10</v>
+      </c>
       <c r="D45">
         <v>150137</v>
       </c>
@@ -2301,7 +4145,9 @@
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5">
+        <v>10</v>
+      </c>
       <c r="D46">
         <v>150138</v>
       </c>
@@ -2328,7 +4174,9 @@
       <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
       <c r="D47">
         <v>150139</v>
       </c>
@@ -2355,7 +4203,9 @@
       <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5">
+        <v>12</v>
+      </c>
       <c r="D48">
         <v>150140</v>
       </c>
@@ -2382,7 +4232,9 @@
       <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5">
+        <v>11</v>
+      </c>
       <c r="D49">
         <v>150141</v>
       </c>
@@ -2409,7 +4261,9 @@
       <c r="B50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5">
+        <v>13</v>
+      </c>
       <c r="D50">
         <v>150142</v>
       </c>
@@ -2436,7 +4290,9 @@
       <c r="B51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5">
+        <v>14</v>
+      </c>
       <c r="D51">
         <v>150143</v>
       </c>
@@ -2463,7 +4319,9 @@
       <c r="B52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5">
+        <v>15</v>
+      </c>
       <c r="D52">
         <v>150144</v>
       </c>
@@ -2490,7 +4348,9 @@
       <c r="B53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5">
+        <v>15</v>
+      </c>
       <c r="D53">
         <v>150145</v>
       </c>
@@ -2517,7 +4377,9 @@
       <c r="B54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5">
+        <v>15</v>
+      </c>
       <c r="D54">
         <v>150146</v>
       </c>
@@ -2544,7 +4406,9 @@
       <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5">
+        <v>16</v>
+      </c>
       <c r="D55">
         <v>150147</v>
       </c>
@@ -2571,7 +4435,9 @@
       <c r="B56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5">
+        <v>16</v>
+      </c>
       <c r="D56">
         <v>150148</v>
       </c>
@@ -2598,7 +4464,9 @@
       <c r="B57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5">
+        <v>17</v>
+      </c>
       <c r="D57">
         <v>150149</v>
       </c>
@@ -2625,7 +4493,9 @@
       <c r="B58" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5">
+        <v>16</v>
+      </c>
       <c r="D58">
         <v>150150</v>
       </c>
@@ -2652,7 +4522,9 @@
       <c r="B59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5">
+        <v>17</v>
+      </c>
       <c r="D59">
         <v>150151</v>
       </c>
@@ -2679,7 +4551,9 @@
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5">
+        <v>18</v>
+      </c>
       <c r="D60">
         <v>150152</v>
       </c>
@@ -2706,7 +4580,9 @@
       <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5">
+        <v>17</v>
+      </c>
       <c r="D61">
         <v>150153</v>
       </c>
@@ -2733,7 +4609,9 @@
       <c r="B62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5">
+        <v>17</v>
+      </c>
       <c r="D62">
         <v>150154</v>
       </c>
@@ -2760,7 +4638,9 @@
       <c r="B63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5">
+        <v>17</v>
+      </c>
       <c r="D63">
         <v>150155</v>
       </c>
@@ -2787,7 +4667,9 @@
       <c r="B64" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5">
+        <v>17</v>
+      </c>
       <c r="D64">
         <v>150156</v>
       </c>
@@ -2814,7 +4696,9 @@
       <c r="B65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5">
+        <v>17</v>
+      </c>
       <c r="D65">
         <v>150157</v>
       </c>
@@ -2841,7 +4725,9 @@
       <c r="B66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5">
+        <v>18</v>
+      </c>
       <c r="D66">
         <v>150158</v>
       </c>
@@ -2868,7 +4754,9 @@
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5">
+        <v>18</v>
+      </c>
       <c r="D67">
         <v>150159</v>
       </c>
@@ -2895,7 +4783,9 @@
       <c r="B68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5">
+        <v>8</v>
+      </c>
       <c r="D68">
         <v>150160</v>
       </c>
@@ -2922,7 +4812,9 @@
       <c r="B69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5">
+        <v>8</v>
+      </c>
       <c r="D69">
         <v>150161</v>
       </c>
@@ -2949,7 +4841,9 @@
       <c r="B70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5">
+        <v>8</v>
+      </c>
       <c r="D70">
         <v>150162</v>
       </c>
@@ -2976,7 +4870,9 @@
       <c r="B71" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5">
+        <v>8</v>
+      </c>
       <c r="D71">
         <v>150163</v>
       </c>
@@ -3003,7 +4899,9 @@
       <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="5">
+        <v>8</v>
+      </c>
       <c r="D72">
         <v>150164</v>
       </c>
@@ -3030,7 +4928,9 @@
       <c r="B73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="5"/>
+      <c r="C73" s="5">
+        <v>25</v>
+      </c>
       <c r="D73">
         <v>150165</v>
       </c>
@@ -3057,7 +4957,9 @@
       <c r="B74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="5"/>
+      <c r="C74" s="5">
+        <v>9</v>
+      </c>
       <c r="D74">
         <v>150166</v>
       </c>
@@ -3084,7 +4986,9 @@
       <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5">
+        <v>25</v>
+      </c>
       <c r="D75">
         <v>150167</v>
       </c>
@@ -3111,7 +5015,9 @@
       <c r="B76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="5">
+        <v>21</v>
+      </c>
       <c r="D76">
         <v>150168</v>
       </c>
@@ -3138,7 +5044,9 @@
       <c r="B77" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5">
+        <v>19</v>
+      </c>
       <c r="D77">
         <v>150169</v>
       </c>
@@ -3165,7 +5073,9 @@
       <c r="B78" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="5"/>
+      <c r="C78" s="5">
+        <v>19</v>
+      </c>
       <c r="D78">
         <v>150170</v>
       </c>
@@ -3192,7 +5102,9 @@
       <c r="B79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="5"/>
+      <c r="C79" s="5">
+        <v>19</v>
+      </c>
       <c r="D79">
         <v>150171</v>
       </c>
@@ -3219,7 +5131,9 @@
       <c r="B80" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="5">
+        <v>19</v>
+      </c>
       <c r="D80">
         <v>150172</v>
       </c>
@@ -3246,7 +5160,9 @@
       <c r="B81" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="5">
+        <v>19</v>
+      </c>
       <c r="D81">
         <v>150173</v>
       </c>
@@ -3273,7 +5189,9 @@
       <c r="B82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="5"/>
+      <c r="C82" s="5">
+        <v>19</v>
+      </c>
       <c r="D82">
         <v>150174</v>
       </c>
@@ -3300,7 +5218,9 @@
       <c r="B83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="5">
+        <v>20</v>
+      </c>
       <c r="D83">
         <v>150175</v>
       </c>
@@ -3327,7 +5247,9 @@
       <c r="B84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="5">
+        <v>22</v>
+      </c>
       <c r="D84">
         <v>150176</v>
       </c>
@@ -3354,7 +5276,9 @@
       <c r="B85" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="5">
+        <v>22</v>
+      </c>
       <c r="D85">
         <v>150177</v>
       </c>
@@ -3381,7 +5305,9 @@
       <c r="B86" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="5">
+        <v>22</v>
+      </c>
       <c r="D86">
         <v>150178</v>
       </c>
@@ -3408,7 +5334,9 @@
       <c r="B87" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="5">
+        <v>22</v>
+      </c>
       <c r="D87">
         <v>150179</v>
       </c>
@@ -3435,7 +5363,9 @@
       <c r="B88" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="5">
+        <v>22</v>
+      </c>
       <c r="D88">
         <v>150180</v>
       </c>
@@ -3462,7 +5392,9 @@
       <c r="B89" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="5">
+        <v>22</v>
+      </c>
       <c r="D89">
         <v>150181</v>
       </c>
@@ -3489,7 +5421,9 @@
       <c r="B90" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="5"/>
+      <c r="C90" s="5">
+        <v>23</v>
+      </c>
       <c r="D90">
         <v>150182</v>
       </c>
@@ -3516,7 +5450,9 @@
       <c r="B91" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="5"/>
+      <c r="C91" s="5">
+        <v>22</v>
+      </c>
       <c r="D91">
         <v>150183</v>
       </c>
@@ -3543,7 +5479,9 @@
       <c r="B92" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="5">
+        <v>23</v>
+      </c>
       <c r="D92">
         <v>150184</v>
       </c>
@@ -3570,7 +5508,9 @@
       <c r="B93" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="5"/>
+      <c r="C93" s="5">
+        <v>24</v>
+      </c>
       <c r="D93">
         <v>150185</v>
       </c>
@@ -3597,7 +5537,9 @@
       <c r="B94" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5">
+        <v>24</v>
+      </c>
       <c r="D94">
         <v>150186</v>
       </c>
@@ -3624,7 +5566,9 @@
       <c r="B95" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="5">
+        <v>24</v>
+      </c>
       <c r="D95">
         <v>150187</v>
       </c>
@@ -3651,7 +5595,9 @@
       <c r="B96" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="5">
+        <v>24</v>
+      </c>
       <c r="D96">
         <v>150188</v>
       </c>
@@ -3678,7 +5624,9 @@
       <c r="B97" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="5">
+        <v>24</v>
+      </c>
       <c r="D97">
         <v>150189</v>
       </c>
@@ -3705,7 +5653,9 @@
       <c r="B98" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5">
+        <v>24</v>
+      </c>
       <c r="D98">
         <v>150190</v>
       </c>
@@ -3732,7 +5682,9 @@
       <c r="B99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="5"/>
+      <c r="C99" s="5">
+        <v>24</v>
+      </c>
       <c r="D99">
         <v>150191</v>
       </c>
@@ -3759,7 +5711,9 @@
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="5">
+        <v>24</v>
+      </c>
       <c r="D100">
         <v>150192</v>
       </c>
@@ -3786,7 +5740,9 @@
       <c r="B101" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C101" s="5"/>
+      <c r="C101" s="5">
+        <v>24</v>
+      </c>
       <c r="D101">
         <v>150193</v>
       </c>
@@ -3814,7 +5770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4271E310-67AC-4A30-9343-42A0DBFC9991}">
   <dimension ref="A1:O3"/>
   <sheetViews>

--- a/Aguas y Aguas Residuales/14.3.xlsx
+++ b/Aguas y Aguas Residuales/14.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Aguas y Aguas Residuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADB959-4F15-4700-AEEE-E47B77E3FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612662FB-E025-44E2-A8B6-71C5DB3AD400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="163">
   <si>
     <t>Región</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>Costeras entre Aconcagua y Maipo</t>
-  </si>
-  <si>
-    <t>Id_producto</t>
-  </si>
-  <si>
-    <t>Id_categoría</t>
   </si>
   <si>
     <t>XV - I</t>
@@ -562,24 +556,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -595,28 +577,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{819B16FD-6F25-4275-AB16-EE503A0C2F4E}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -634,18 +605,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1941,7 +1900,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{781AC90E-7A1C-40EC-8565-52E4B63BB318}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{781AC90E-7A1C-40EC-8565-52E4B63BB318}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2129,15 +2088,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F099829E-E33F-463C-AA2D-9EA75C138637}" name="Superficie_cuencas" displayName="Superficie_cuencas" ref="A1:J101" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J101" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Región" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{43A00DD0-55AB-4AF7-A8A1-7E6284B11DE6}" uniqueName="2" name="Nombre" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D080F369-41D4-49D7-9638-DEC141920E26}" uniqueName="3" name="Id_región" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Región" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{43A00DD0-55AB-4AF7-A8A1-7E6284B11DE6}" uniqueName="2" name="Nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{D080F369-41D4-49D7-9638-DEC141920E26}" uniqueName="3" name="Id_región" queryTableFieldId="3"/>
     <tableColumn id="5" xr3:uid="{06E5A634-EBF3-405C-AF9C-48A480BE10ED}" uniqueName="5" name="Id_Producto" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{46E73ADA-5EC9-4AEC-9E0F-398DB74F5E78}" uniqueName="6" name="Producto" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{46E73ADA-5EC9-4AEC-9E0F-398DB74F5E78}" uniqueName="6" name="Producto" queryTableFieldId="6" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{280AC2D3-C9CD-46BB-A78E-A7A160C84E59}" uniqueName="7" name="Id_Categoría" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{BB491DC2-A47C-4410-8CEB-01D3B6B51800}" uniqueName="8" name="Categoría" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Km2" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{FAADDBFC-B9B0-4814-9462-6CEE58AFFAC3}" uniqueName="10" name="Tipo" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BB491DC2-A47C-4410-8CEB-01D3B6B51800}" uniqueName="8" name="Categoría" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Km2" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{FAADDBFC-B9B0-4814-9462-6CEE58AFFAC3}" uniqueName="10" name="Tipo" queryTableFieldId="10" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{00674568-A639-4E29-9870-7D558011B447}" uniqueName="13" name="Definición" queryTableFieldId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2159,8 +2118,8 @@
     <tableColumn id="9" xr3:uid="{FC780F4B-C7DB-41E4-A693-53DD6FA99C6B}" name="Tags"/>
     <tableColumn id="10" xr3:uid="{DBB530BB-992B-4190-848A-D7DE9C8CD202}" name="ISO país"/>
     <tableColumn id="11" xr3:uid="{15A07EEF-6C1F-4CF5-9B02-0FF1E380ED4A}" name="Nivel administrativo"/>
-    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{21C1EE09-C873-4F57-9432-F9DF6B2F64A0}" name="Fecha" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{21C1EE09-C873-4F57-9432-F9DF6B2F64A0}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{7A8C3236-0C8F-4AD3-BA7C-589BA810C594}" name="Unidad"/>
     <tableColumn id="15" xr3:uid="{24AFDEA5-B87E-4622-A270-B32EFC13575C}" name="Responsable"/>
   </tableColumns>
@@ -2478,16 +2437,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2495,10 +2454,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2506,10 +2465,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2517,10 +2476,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -2528,10 +2487,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -2539,10 +2498,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2550,10 +2509,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2561,10 +2520,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -2572,10 +2531,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2583,10 +2542,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -2594,10 +2553,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -2605,10 +2564,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>12</v>
@@ -2616,10 +2575,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>13</v>
@@ -2627,10 +2586,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -2638,10 +2597,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -2649,10 +2608,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>16</v>
@@ -2660,10 +2619,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>17</v>
@@ -2671,10 +2630,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G21">
         <v>18</v>
@@ -2682,10 +2641,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>19</v>
@@ -2693,10 +2652,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -2704,10 +2663,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -2715,10 +2674,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -2726,10 +2685,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -2737,10 +2696,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <v>24</v>
@@ -2748,10 +2707,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -2759,10 +2718,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -2770,10 +2729,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -2786,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0990A9-6C8A-4CD6-9135-FE13E8A12DC1}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,12 +2765,12 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2829,23 +2788,23 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
         <v>27</v>
       </c>
       <c r="D2">
@@ -2854,39 +2813,30 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F2">
+        <v>15010201</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H2" s="1">
         <v>11369.06</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
         <v>26</v>
       </c>
       <c r="D3">
@@ -2895,39 +2845,30 @@
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F3">
+        <v>15010201</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H3" s="1">
         <v>784.83</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="L3" s="2">
-        <v>150102</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2">
-        <v>15010201</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="5">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4">
         <v>26</v>
       </c>
       <c r="D4">
@@ -2936,27 +2877,30 @@
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F4">
+        <v>15010201</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" s="1">
         <v>3437.15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5">
         <v>26</v>
       </c>
       <c r="D5">
@@ -2965,27 +2909,30 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F5">
+        <v>15010201</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1">
         <v>3193.95</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
         <v>26</v>
       </c>
       <c r="D6">
@@ -2994,27 +2941,30 @@
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F6">
+        <v>15010201</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H6" s="1">
         <v>2675.59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7">
         <v>27</v>
       </c>
       <c r="D7">
@@ -3023,27 +2973,30 @@
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F7">
+        <v>15010201</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H7" s="1">
         <v>4681.8900000000003</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
@@ -3052,27 +3005,30 @@
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F8">
+        <v>15010201</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="1">
         <v>3805.76</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
@@ -3081,27 +3037,30 @@
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F9">
+        <v>15010201</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="1">
         <v>17353.8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
@@ -3110,27 +3069,30 @@
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F10">
+        <v>15010201</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H10" s="1">
         <v>5847.45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
@@ -3139,27 +3101,30 @@
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F11">
+        <v>15010201</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="1">
         <v>2675.03</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
@@ -3168,27 +3133,30 @@
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F12">
+        <v>15010201</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H12" s="1">
         <v>33082.769999999997</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
@@ -3197,27 +3165,30 @@
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F13">
+        <v>15010201</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H13" s="1">
         <v>8377.7900000000009</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
@@ -3226,27 +3197,30 @@
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F14">
+        <v>15010201</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H14" s="1">
         <v>4055.54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
@@ -3255,27 +3229,30 @@
       <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F15">
+        <v>15010201</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H15" s="1">
         <v>5307.77</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
@@ -3284,27 +3261,30 @@
       <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F16">
+        <v>15010201</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H16" s="1">
         <v>15576.5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
@@ -3313,27 +3293,30 @@
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F17">
+        <v>15010201</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H17" s="1">
         <v>14473.65</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
@@ -3342,27 +3325,30 @@
       <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F18">
+        <v>15010201</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H18" s="1">
         <v>18296.2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
@@ -3371,27 +3357,30 @@
       <c r="E19" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F19">
+        <v>15010201</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H19" s="1">
         <v>11347.2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
@@ -3400,27 +3389,30 @@
       <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F20">
+        <v>15010201</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H20" s="1">
         <v>16897.509999999998</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
@@ -3429,27 +3421,30 @@
       <c r="E21" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F21">
+        <v>15010201</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H21" s="1">
         <v>15619.02</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
       <c r="D22">
@@ -3458,27 +3453,30 @@
       <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F22">
+        <v>15010201</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H22" s="1">
         <v>6626.42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
@@ -3487,27 +3485,30 @@
       <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F23">
+        <v>15010201</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H23" s="1">
         <v>7528.75</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
         <v>5</v>
       </c>
       <c r="D24">
@@ -3516,27 +3517,30 @@
       <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F24">
+        <v>15010201</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" s="1">
         <v>5848.99</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
@@ -3545,27 +3549,30 @@
       <c r="E25" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F25">
+        <v>15010201</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H25" s="1">
         <v>18704.07</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
@@ -3574,27 +3581,30 @@
       <c r="E26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F26">
+        <v>15010201</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H26" s="1">
         <v>2045.84</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
         <v>5</v>
       </c>
       <c r="D27">
@@ -3603,27 +3613,30 @@
       <c r="E27" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F27">
+        <v>15010201</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H27" s="1">
         <v>5944.31</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
       <c r="D28">
@@ -3632,27 +3645,30 @@
       <c r="E28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F28">
+        <v>15010201</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H28" s="1">
         <v>2414.71</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
         <v>6</v>
       </c>
       <c r="D29">
@@ -3661,27 +3677,30 @@
       <c r="E29" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F29">
+        <v>15010201</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="1">
         <v>9813.74</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
@@ -3690,27 +3709,30 @@
       <c r="E30" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F30">
+        <v>15010201</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H30" s="1">
         <v>3959.15</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31">
         <v>7</v>
       </c>
       <c r="D31">
@@ -3719,27 +3741,30 @@
       <c r="E31" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F31">
+        <v>15010201</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H31" s="1">
         <v>229.88</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32">
         <v>6</v>
       </c>
       <c r="D32">
@@ -3748,27 +3773,30 @@
       <c r="E32" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F32">
+        <v>15010201</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H32" s="1">
         <v>3837.95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33">
         <v>7</v>
       </c>
       <c r="D33">
@@ -3777,27 +3805,30 @@
       <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F33">
+        <v>15010201</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H33" s="1">
         <v>440.82</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34">
         <v>7</v>
       </c>
       <c r="D34">
@@ -3806,27 +3837,30 @@
       <c r="E34" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F34">
+        <v>15010201</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1">
         <v>9826</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
@@ -3835,27 +3869,30 @@
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F35">
+        <v>15010201</v>
+      </c>
       <c r="G35" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="1">
         <v>2299.56</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36">
         <v>7</v>
       </c>
       <c r="D36">
@@ -3864,27 +3901,30 @@
       <c r="E36" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F36">
+        <v>15010201</v>
+      </c>
       <c r="G36" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" s="1">
         <v>11696.45</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37">
         <v>7</v>
       </c>
       <c r="D37">
@@ -3893,27 +3933,30 @@
       <c r="E37" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F37">
+        <v>15010201</v>
+      </c>
       <c r="G37" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H37" s="1">
         <v>1666.89</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38">
         <v>7</v>
       </c>
       <c r="D38">
@@ -3922,27 +3965,30 @@
       <c r="E38" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F38">
+        <v>15010201</v>
+      </c>
       <c r="G38" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H38" s="1">
         <v>7653.74</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39">
         <v>7</v>
       </c>
       <c r="D39">
@@ -3951,27 +3997,30 @@
       <c r="E39" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F39">
+        <v>15010201</v>
+      </c>
       <c r="G39" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H39" s="1">
         <v>1293.4000000000001</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
@@ -3980,27 +4029,30 @@
       <c r="E40" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F40">
+        <v>15010201</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H40" s="1">
         <v>783.47</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
@@ -4009,27 +4061,30 @@
       <c r="E41" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F41">
+        <v>15010201</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H41" s="1">
         <v>332.65</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42">
         <v>10</v>
       </c>
       <c r="D42">
@@ -4038,27 +4093,30 @@
       <c r="E42" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F42">
+        <v>15010201</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H42" s="1">
         <v>1988.27</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43">
         <v>10</v>
       </c>
       <c r="D43">
@@ -4067,27 +4125,30 @@
       <c r="E43" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F43">
+        <v>15010201</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H43" s="1">
         <v>1980.18</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44">
         <v>10</v>
       </c>
       <c r="D44">
@@ -4096,27 +4157,30 @@
       <c r="E44" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F44">
+        <v>15010201</v>
+      </c>
       <c r="G44" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H44" s="1">
         <v>850.52</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45">
         <v>10</v>
       </c>
       <c r="D45">
@@ -4125,27 +4189,30 @@
       <c r="E45" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F45">
+        <v>15010201</v>
+      </c>
       <c r="G45" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H45" s="1">
         <v>7334.27</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>10</v>
       </c>
       <c r="D46">
@@ -4154,27 +4221,30 @@
       <c r="E46" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F46">
+        <v>15010201</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H46" s="1">
         <v>2307.0100000000002</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
@@ -4183,27 +4253,30 @@
       <c r="E47" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F47">
+        <v>15010201</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H47" s="1">
         <v>232.69</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48">
         <v>12</v>
       </c>
       <c r="D48">
@@ -4212,27 +4285,30 @@
       <c r="E48" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F48">
+        <v>15010201</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H48" s="1">
         <v>15274.14</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49">
         <v>11</v>
       </c>
       <c r="D49">
@@ -4241,27 +4317,30 @@
       <c r="E49" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F49">
+        <v>15010201</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H49" s="1">
         <v>1072.03</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50">
         <v>13</v>
       </c>
       <c r="D50">
@@ -4270,27 +4349,30 @@
       <c r="E50" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F50">
+        <v>15010201</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H50" s="1">
         <v>13766.76</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51">
         <v>14</v>
       </c>
       <c r="D51">
@@ -4299,27 +4381,30 @@
       <c r="E51" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F51">
+        <v>15010201</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H51" s="1">
         <v>3397.3</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52">
         <v>15</v>
       </c>
       <c r="D52">
@@ -4328,27 +4413,30 @@
       <c r="E52" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F52">
+        <v>15010201</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H52" s="1">
         <v>613.73</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53">
         <v>15</v>
       </c>
       <c r="D53">
@@ -4357,27 +4445,30 @@
       <c r="E53" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F53">
+        <v>15010201</v>
+      </c>
       <c r="G53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H53" s="1">
         <v>6332.17</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="5">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54">
         <v>15</v>
       </c>
       <c r="D54">
@@ -4386,27 +4477,30 @@
       <c r="E54" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F54">
+        <v>15010201</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H54" s="1">
         <v>1087.75</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="5">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55">
         <v>16</v>
       </c>
       <c r="D55">
@@ -4415,27 +4509,30 @@
       <c r="E55" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F55">
+        <v>15010201</v>
+      </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H55" s="1">
         <v>21053.78</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56">
         <v>16</v>
       </c>
       <c r="D56">
@@ -4444,27 +4541,30 @@
       <c r="E56" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F56">
+        <v>15010201</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H56" s="1">
         <v>1995.43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57">
         <v>17</v>
       </c>
       <c r="D57">
@@ -4473,27 +4573,30 @@
       <c r="E57" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F57">
+        <v>15010201</v>
+      </c>
       <c r="G57" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H57" s="1">
         <v>616.46</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58">
         <v>16</v>
       </c>
       <c r="D58">
@@ -4502,27 +4605,30 @@
       <c r="E58" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F58">
+        <v>15010201</v>
+      </c>
       <c r="G58" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H58" s="1">
         <v>11327.19</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="5">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59">
         <v>17</v>
       </c>
       <c r="D59">
@@ -4531,27 +4637,30 @@
       <c r="E59" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F59">
+        <v>15010201</v>
+      </c>
       <c r="G59" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H59" s="1">
         <v>1502.97</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60">
         <v>18</v>
       </c>
       <c r="D60">
@@ -4560,27 +4669,30 @@
       <c r="E60" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F60">
+        <v>15010201</v>
+      </c>
       <c r="G60" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H60" s="1">
         <v>24370.61</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61">
         <v>17</v>
       </c>
       <c r="D61">
@@ -4589,27 +4701,30 @@
       <c r="E61" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F61">
+        <v>15010201</v>
+      </c>
       <c r="G61" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H61" s="1">
         <v>394.62</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="5">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62">
         <v>17</v>
       </c>
       <c r="D62">
@@ -4618,27 +4733,30 @@
       <c r="E62" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F62">
+        <v>15010201</v>
+      </c>
       <c r="G62" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H62" s="1">
         <v>1262.17</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="5">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63">
         <v>17</v>
       </c>
       <c r="D63">
@@ -4647,27 +4765,30 @@
       <c r="E63" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F63">
+        <v>15010201</v>
+      </c>
       <c r="G63" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H63" s="1">
         <v>624.15</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="5">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64">
         <v>17</v>
       </c>
       <c r="D64">
@@ -4676,27 +4797,30 @@
       <c r="E64" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F64">
+        <v>15010201</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H64" s="1">
         <v>857.96</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="5">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65">
         <v>17</v>
       </c>
       <c r="D65">
@@ -4705,27 +4829,30 @@
       <c r="E65" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F65">
+        <v>15010201</v>
+      </c>
       <c r="G65" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H65" s="1">
         <v>1695.84</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="5">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66">
         <v>18</v>
       </c>
       <c r="D66">
@@ -4734,27 +4861,30 @@
       <c r="E66" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F66">
+        <v>15010201</v>
+      </c>
       <c r="G66" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H66" s="1">
         <v>1391.06</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="5">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67">
         <v>18</v>
       </c>
       <c r="D67">
@@ -4763,27 +4893,30 @@
       <c r="E67" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F67">
+        <v>15010201</v>
+      </c>
       <c r="G67" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H67" s="1">
         <v>67.180000000000007</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="5">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68">
         <v>8</v>
       </c>
       <c r="D68">
@@ -4792,27 +4925,30 @@
       <c r="E68" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F68">
+        <v>15010201</v>
+      </c>
       <c r="G68" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H68" s="1">
         <v>12668.84</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="5">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69">
         <v>8</v>
       </c>
       <c r="D69">
@@ -4821,27 +4957,30 @@
       <c r="E69" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F69">
+        <v>15010201</v>
+      </c>
       <c r="G69" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H69" s="1">
         <v>497.29</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="5">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70">
         <v>8</v>
       </c>
       <c r="D70">
@@ -4850,27 +4989,30 @@
       <c r="E70" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F70">
+        <v>15010201</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H70" s="1">
         <v>163.01</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="5">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71">
         <v>8</v>
       </c>
       <c r="D71">
@@ -4879,27 +5021,30 @@
       <c r="E71" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F71">
+        <v>15010201</v>
+      </c>
       <c r="G71" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H71" s="1">
         <v>8448.81</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="5">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72">
         <v>8</v>
       </c>
       <c r="D72">
@@ -4908,27 +5053,30 @@
       <c r="E72" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F72">
+        <v>15010201</v>
+      </c>
       <c r="G72" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H72" s="1">
         <v>699.64</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="5">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73">
         <v>25</v>
       </c>
       <c r="D73">
@@ -4937,27 +5085,30 @@
       <c r="E73" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F73">
+        <v>15010201</v>
+      </c>
       <c r="G73" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H73" s="1">
         <v>743.51</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="5">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74">
         <v>9</v>
       </c>
       <c r="D74">
@@ -4966,27 +5117,30 @@
       <c r="E74" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F74">
+        <v>15010201</v>
+      </c>
       <c r="G74" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H74" s="1">
         <v>10244.98</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="5">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75">
         <v>25</v>
       </c>
       <c r="D75">
@@ -4995,27 +5149,30 @@
       <c r="E75" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F75">
+        <v>15010201</v>
+      </c>
       <c r="G75" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H75" s="1">
         <v>762.66</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="5">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76">
         <v>21</v>
       </c>
       <c r="D76">
@@ -5024,27 +5181,30 @@
       <c r="E76" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F76">
+        <v>15010201</v>
+      </c>
       <c r="G76" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H76" s="1">
         <v>15366.76</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="5">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77">
         <v>19</v>
       </c>
       <c r="D77">
@@ -5053,27 +5213,30 @@
       <c r="E77" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F77">
+        <v>15010201</v>
+      </c>
       <c r="G77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H77" s="1">
         <v>13507.84</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="5">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78">
         <v>19</v>
       </c>
       <c r="D78">
@@ -5082,27 +5245,30 @@
       <c r="E78" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F78">
+        <v>15010201</v>
+      </c>
       <c r="G78" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H78" s="1">
         <v>3094.45</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="5">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79">
         <v>19</v>
       </c>
       <c r="D79">
@@ -5111,27 +5277,30 @@
       <c r="E79" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F79">
+        <v>15010201</v>
+      </c>
       <c r="G79" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H79" s="1">
         <v>6248.95</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="5">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80">
         <v>19</v>
       </c>
       <c r="D80">
@@ -5140,27 +5309,30 @@
       <c r="E80" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F80">
+        <v>15010201</v>
+      </c>
       <c r="G80" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H80" s="1">
         <v>4084.66</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J80">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="5">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81">
         <v>19</v>
       </c>
       <c r="D81">
@@ -5169,27 +5341,30 @@
       <c r="E81" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F81">
+        <v>15010201</v>
+      </c>
       <c r="G81" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H81" s="1">
         <v>2709.26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="5">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82">
         <v>19</v>
       </c>
       <c r="D82">
@@ -5198,27 +5373,30 @@
       <c r="E82" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F82">
+        <v>15010201</v>
+      </c>
       <c r="G82" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H82" s="1">
         <v>9964.17</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="5">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83">
         <v>20</v>
       </c>
       <c r="D83">
@@ -5227,27 +5405,30 @@
       <c r="E83" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F83">
+        <v>15010201</v>
+      </c>
       <c r="G83" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H83" s="1">
         <v>7732.64</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="5">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84">
         <v>22</v>
       </c>
       <c r="D84">
@@ -5256,27 +5437,30 @@
       <c r="E84" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F84">
+        <v>15010201</v>
+      </c>
       <c r="G84" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H84" s="1">
         <v>17200.330000000002</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="5">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
         <v>22</v>
       </c>
       <c r="D85">
@@ -5285,27 +5469,30 @@
       <c r="E85" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F85">
+        <v>15010201</v>
+      </c>
       <c r="G85" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H85" s="1">
         <v>24278.27</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="5">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86">
         <v>22</v>
       </c>
       <c r="D86">
@@ -5314,27 +5501,30 @@
       <c r="E86" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F86">
+        <v>15010201</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H86" s="1">
         <v>11456.7</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="5">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87">
         <v>22</v>
       </c>
       <c r="D87">
@@ -5343,27 +5533,30 @@
       <c r="E87" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F87">
+        <v>15010201</v>
+      </c>
       <c r="G87" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H87" s="1">
         <v>35156.65</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" s="5">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88">
         <v>22</v>
       </c>
       <c r="D88">
@@ -5372,27 +5565,30 @@
       <c r="E88" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F88">
+        <v>15010201</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H88" s="1">
         <v>20946.919999999998</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J88">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="5">
+      <c r="A89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
         <v>22</v>
       </c>
       <c r="D89">
@@ -5401,27 +5597,30 @@
       <c r="E89" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F89">
+        <v>15010201</v>
+      </c>
       <c r="G89" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H89" s="1">
         <v>4531.8599999999997</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="5">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90">
         <v>23</v>
       </c>
       <c r="D90">
@@ -5430,27 +5629,30 @@
       <c r="E90" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F90">
+        <v>15010201</v>
+      </c>
       <c r="G90" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H90" s="1">
         <v>7590.45</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="5">
+      <c r="A91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91">
         <v>22</v>
       </c>
       <c r="D91">
@@ -5459,27 +5661,30 @@
       <c r="E91" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F91">
+        <v>15010201</v>
+      </c>
       <c r="G91" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H91" s="1">
         <v>16556.63</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="5">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92">
         <v>23</v>
       </c>
       <c r="D92">
@@ -5488,27 +5693,30 @@
       <c r="E92" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F92">
+        <v>15010201</v>
+      </c>
       <c r="G92" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H92" s="1">
         <v>13951.63</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J92">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="5">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93">
         <v>24</v>
       </c>
       <c r="D93">
@@ -5517,27 +5725,30 @@
       <c r="E93" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F93">
+        <v>15010201</v>
+      </c>
       <c r="G93" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H93" s="1">
         <v>19851.5</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J93">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="5">
+      <c r="A94" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94">
         <v>24</v>
       </c>
       <c r="D94">
@@ -5546,27 +5757,30 @@
       <c r="E94" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F94">
+        <v>15010201</v>
+      </c>
       <c r="G94" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H94" s="1">
         <v>17830.759999999998</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="5">
+      <c r="A95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95">
         <v>24</v>
       </c>
       <c r="D95">
@@ -5575,27 +5789,30 @@
       <c r="E95" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F95">
+        <v>15010201</v>
+      </c>
       <c r="G95" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H95" s="1">
         <v>24886.720000000001</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J95">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="5">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96">
         <v>24</v>
       </c>
       <c r="D96">
@@ -5604,27 +5821,30 @@
       <c r="E96" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F96">
+        <v>15010201</v>
+      </c>
       <c r="G96" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H96" s="1">
         <v>20667.560000000001</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J96">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="5">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97">
         <v>24</v>
       </c>
       <c r="D97">
@@ -5633,27 +5853,30 @@
       <c r="E97" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F97">
+        <v>15010201</v>
+      </c>
       <c r="G97" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H97" s="1">
         <v>17764.580000000002</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="5">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98">
         <v>24</v>
       </c>
       <c r="D98">
@@ -5662,27 +5885,30 @@
       <c r="E98" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F98">
+        <v>15010201</v>
+      </c>
       <c r="G98" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H98" s="1">
         <v>9335</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="5">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99">
         <v>24</v>
       </c>
       <c r="D99">
@@ -5691,27 +5917,30 @@
       <c r="E99" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F99">
+        <v>15010201</v>
+      </c>
       <c r="G99" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H99" s="1">
         <v>27933.74</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J99">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="5">
+      <c r="A100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100">
         <v>24</v>
       </c>
       <c r="D100">
@@ -5720,27 +5949,30 @@
       <c r="E100" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F100">
+        <v>15010201</v>
+      </c>
       <c r="G100" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H100" s="1">
         <v>42222.93</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J100">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C101" s="5">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101">
         <v>24</v>
       </c>
       <c r="D101">
@@ -5749,14 +5981,17 @@
       <c r="E101" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F101">
+        <v>15010201</v>
+      </c>
       <c r="G101" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H101" s="1">
         <v>35219.360000000001</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J101">
         <v>2</v>
@@ -5781,7 +6016,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
@@ -5842,16 +6077,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -5860,10 +6095,10 @@
         <v>2021</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -5872,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="3">
+        <v>156</v>
+      </c>
+      <c r="M2" s="2">
         <v>44318</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -5889,16 +6124,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
         <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
-        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -5907,10 +6142,10 @@
         <v>2021</v>
       </c>
       <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
         <v>162</v>
-      </c>
-      <c r="I3" t="s">
-        <v>164</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -5919,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="3">
+        <v>157</v>
+      </c>
+      <c r="M3" s="2">
         <v>44318</v>
       </c>
       <c r="N3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
